--- a/data/Christian MoralesT2-2024.xlsx
+++ b/data/Christian MoralesT2-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I162"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>263.01652158</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -3268,6 +3270,7 @@
         <v>8.26e-05</v>
       </c>
     </row>
+    <row r="161"/>
     <row r="162">
       <c r="D162" s="6" t="inlineStr">
         <is>
@@ -3293,7 +3296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3306,6 +3309,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -3313,6 +3318,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -3320,6 +3326,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -3728,6 +3735,7 @@
         <v>0.00049629</v>
       </c>
     </row>
+    <row r="39"/>
     <row r="40">
       <c r="C40" s="6" t="inlineStr">
         <is>
@@ -3753,7 +3761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3766,6 +3774,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -3773,6 +3783,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -3780,6 +3791,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -3863,6 +3875,7 @@
         <v>0.02196576</v>
       </c>
     </row>
+    <row r="14"/>
     <row r="15">
       <c r="C15" s="6" t="inlineStr">
         <is>

--- a/data/Christian MoralesT2-2024.xlsx
+++ b/data/Christian MoralesT2-2024.xlsx
@@ -67,7 +67,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -88,6 +88,8 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -452,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="C3:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,8 +468,6 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -475,7 +475,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -483,7 +482,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -537,6 +535,8 @@
       <c r="F10" s="11" t="n">
         <v>263.01652158</v>
       </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -3270,7 +3270,6 @@
         <v>8.26e-05</v>
       </c>
     </row>
-    <row r="161"/>
     <row r="162">
       <c r="D162" s="6" t="inlineStr">
         <is>
@@ -3296,7 +3295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="C3:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3309,8 +3308,6 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -3318,7 +3315,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -3326,7 +3322,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -3735,7 +3730,6 @@
         <v>0.00049629</v>
       </c>
     </row>
-    <row r="39"/>
     <row r="40">
       <c r="C40" s="6" t="inlineStr">
         <is>
@@ -3761,7 +3755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="C3:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3774,8 +3768,6 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -3783,7 +3775,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -3791,7 +3782,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -3875,7 +3865,6 @@
         <v>0.02196576</v>
       </c>
     </row>
-    <row r="14"/>
     <row r="15">
       <c r="C15" s="6" t="inlineStr">
         <is>
